--- a/output/google_maps_combined_data.xlsx
+++ b/output/google_maps_combined_data.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\whatsappbot\wpbot\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="406">
   <si>
     <t>Name</t>
   </si>
@@ -48,37 +43,388 @@
     <t>Eklenme Tarihi</t>
   </si>
   <si>
+    <t>Cankuş | Kayseri Beyaz Eşya Mağazası</t>
+  </si>
+  <si>
+    <t>BOSCH meysu outlet kayseri</t>
+  </si>
+  <si>
+    <t>Nurkan Ticaret Kayseri</t>
+  </si>
+  <si>
+    <t>KUTUP BEYAZ EŞYA</t>
+  </si>
+  <si>
+    <t>Bereket Beyaz Eşya Ltd. Şti.</t>
+  </si>
+  <si>
+    <t>Vestel Yetkili Servisi - Kocasinan - Gündüz Elektronik</t>
+  </si>
+  <si>
+    <t>Bulut Beyaz Eşya</t>
+  </si>
+  <si>
+    <t>Bingöl Ticaret Beyaz Eşya Mağazası</t>
+  </si>
+  <si>
+    <t>Vestel Kocasinan Tuna Yetkili Satış Mağazası - Bayram Önem</t>
+  </si>
+  <si>
+    <t>7/24 TEKNİK SERVİS KAYSERİ</t>
+  </si>
+  <si>
+    <t>Bosch Yakut ticaret</t>
+  </si>
+  <si>
+    <t>Bosch Gül Ticaret İstasyon</t>
+  </si>
+  <si>
+    <t>Kutup Servis | Kayseri Beyaz Eşya Servisi</t>
+  </si>
+  <si>
+    <t>Boyraz Beyaz Eşya</t>
+  </si>
+  <si>
+    <t>BEYAZ EŞYA SERVİSİ ARÇELİK BEKO BOSCH SİEMENS PROFİLO ARİSTON VESTEL ALTUS SEG</t>
+  </si>
+  <si>
+    <t>Profilo Kocasinan Bayi Bulut Mağazaları</t>
+  </si>
+  <si>
+    <t>Global Beyaz Eşya Kombi Teknik Servis</t>
+  </si>
+  <si>
+    <t>Profilo Kocasinan Bayi Bereket</t>
+  </si>
+  <si>
+    <t>Vestel Kayseri Yetkili Satış Mağazası - Şentürk DTM</t>
+  </si>
+  <si>
+    <t>Akşan Ticaret-Sıemens Beyaz Eşya</t>
+  </si>
+  <si>
+    <t>Arçelik Şahin Ev Gereçleri</t>
+  </si>
+  <si>
+    <t>Profilo Bayi Burcak Tic.</t>
+  </si>
+  <si>
+    <t>KAYSERİ BEYAZ EŞYA SERVİSİ ENDER TEKNİK</t>
+  </si>
+  <si>
+    <t>Net Soğutma</t>
+  </si>
+  <si>
+    <t>Profilo Barbaros Bayi Erdem Tic</t>
+  </si>
+  <si>
+    <t>Bosch Yetkili Satıcısı</t>
+  </si>
+  <si>
+    <t>TELETEKNİK PROFİLO</t>
+  </si>
+  <si>
+    <t>Vestel Yetkili Servisi Gündüz Elektronik Ltd.Şti.</t>
+  </si>
+  <si>
+    <t>RÜZGAR SOĞUTMA KAYSERİ BEYAZ EŞYA VE KLİMA SERVİSİ</t>
+  </si>
+  <si>
+    <t>Akyol Beyaz Eşya Teknik Servisi</t>
+  </si>
+  <si>
+    <t>ÖZGÜR TİCARET</t>
+  </si>
+  <si>
+    <t>BOSCH DANACI PREMIUM</t>
+  </si>
+  <si>
+    <t>YEDPA BEYAZ EŞYA YEDEK PARÇA</t>
+  </si>
+  <si>
+    <t>Beyaz Eşya Tamir ve Onarım Servisi</t>
+  </si>
+  <si>
+    <t>Kayseri Profilo Teknik Servis</t>
+  </si>
+  <si>
+    <t>ENDES BEYAZ EŞYA TEKNİK BAKIM ÖZEL SERVİS</t>
+  </si>
+  <si>
+    <t>Siemens Cumhuriyet Bayi Doğançay Ev Alet. Tic. Ve San. Ltd. Şti.</t>
+  </si>
+  <si>
+    <t>Esen Soğutma ve Teknik Servis</t>
+  </si>
+  <si>
+    <t>Ganioğlu Beko</t>
+  </si>
+  <si>
+    <t>Arçelik Beko Altus Grundig Yetkili Servisi</t>
+  </si>
+  <si>
+    <t>BEKO - GALERİ BURHAN DAYANIKLI TÜKETİM</t>
+  </si>
+  <si>
+    <t>Dertkesen Teknik Beyaz Eşya Servisi</t>
+  </si>
+  <si>
+    <t>Bosch - Akkaş Ticaret</t>
+  </si>
+  <si>
+    <t>Sinan Ticaret (Bilişim) Elektrik Elektronik İç ve Dış Ticaret Ltd. Şti.</t>
+  </si>
+  <si>
+    <t>BOSCH AKKAŞ YETKİLİ BAYİİ KAYSERİ SİVAS CAD.</t>
+  </si>
+  <si>
+    <t>Vestel Kocasinan Şeker Yetkili Satış Mağazası - Bayram Önem</t>
+  </si>
+  <si>
+    <t>Safa Ticaret Toptan &amp; Perakende</t>
+  </si>
+  <si>
+    <t>KILIÇ TEKNİK</t>
+  </si>
+  <si>
+    <t>Kaplan Ticaret</t>
+  </si>
+  <si>
+    <t>Özsim</t>
+  </si>
+  <si>
+    <t>Huzur Teknik Beyaz Eşya Özel Servis</t>
+  </si>
+  <si>
+    <t>murat elektronik</t>
+  </si>
+  <si>
+    <t>BOSCH SİEMENS PROFİLO Yetkili Servisi ASİL SERVİS HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>Sümer Elektronik Sistemleri Dayanıklı Tüketim Mamülleri</t>
+  </si>
+  <si>
+    <t>Kismet Teknik Yedek Parça</t>
+  </si>
+  <si>
+    <t>Kayseri Bosch Servisi</t>
+  </si>
+  <si>
+    <t>BOLKAR SERVİS/buzdolabı/çamaşır makinesi/bulaşık makinesi/fırın onarımı</t>
+  </si>
+  <si>
+    <t>BİROL TİCARET KAYSERİ (ÖZ-EŞ İKLİMLENDİRME) BEYAZ EŞYA YEDEK PARÇA</t>
+  </si>
+  <si>
+    <t>Mesut Beyaz Eşya Servisi</t>
+  </si>
+  <si>
     <t>ARÇELİK - OKAN EV ALETLERİ</t>
   </si>
   <si>
     <t>BEKO - YAŞAR HİTHİT</t>
   </si>
   <si>
-    <t>Cankuş | Kayseri Beyaz Eşya Mağazası</t>
-  </si>
-  <si>
-    <t>Nurkan Ticaret Kayseri</t>
-  </si>
-  <si>
-    <t>BOSCH meysu outlet kayseri</t>
-  </si>
-  <si>
-    <t>KUTUP BEYAZ EŞYA</t>
-  </si>
-  <si>
-    <t>Bereket Beyaz Eşya Ltd. Şti.</t>
+    <t>Karaburgu Beko Örnek Bayi</t>
+  </si>
+  <si>
+    <t>Bosch Siemens Profilo Yetkili Servisi Demsan Elektrikli Ev Aletleri</t>
+  </si>
+  <si>
+    <t>Uğur Yetkili Bayi-Yüksel Özdemir Ticaret</t>
+  </si>
+  <si>
+    <t>Cebeci Spot 2.El Eşya Alim Satimi</t>
+  </si>
+  <si>
+    <t>Sönmez Elektronik</t>
+  </si>
+  <si>
+    <t>Siemens - Gülsoylar Home Center</t>
+  </si>
+  <si>
+    <t>Bosch Hacısaki Bayi Başmısırlı Ticaret</t>
+  </si>
+  <si>
+    <t>ERTAŞ ELEKTRONİK</t>
+  </si>
+  <si>
+    <t>Nisan Teknik Servis</t>
+  </si>
+  <si>
+    <t>Kayseri Bosch Siemens Servisi</t>
+  </si>
+  <si>
+    <t>Profilo Esra D.t.m LTD.ŞTİ</t>
+  </si>
+  <si>
+    <t>Profilo</t>
+  </si>
+  <si>
+    <t>Electrolux AEG Zanussı yetkili servisi</t>
+  </si>
+  <si>
+    <t>Kayseri İkinci El Eşya Alım Satım Samet Spot</t>
+  </si>
+  <si>
+    <t>Hoover Yetkili Servisi</t>
+  </si>
+  <si>
+    <t>Franke Dominox Yetkili Servis - Simge Teknik</t>
+  </si>
+  <si>
+    <t>Kayseri İkinci El Eşya Alım - Lider Spot</t>
+  </si>
+  <si>
+    <t>Siemens - Deko Yap Yapı Malzemeleri</t>
+  </si>
+  <si>
+    <t>zamantı siemens</t>
+  </si>
+  <si>
+    <t>Kocasinan - Gaggenau Yetkili Servisi</t>
+  </si>
+  <si>
+    <t>Burak Toptan Beyaz Eşya</t>
+  </si>
+  <si>
+    <t>Kar Servis - Uğur Soğutma Yetkili Servisi</t>
+  </si>
+  <si>
+    <t>Kayseri 2.El Eşya Alım Satım Spot</t>
+  </si>
+  <si>
+    <t>Şeref Elektronik</t>
+  </si>
+  <si>
+    <t>Doğançay</t>
+  </si>
+  <si>
+    <t>Mesut Soğutma</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>Bosch - Marka Mobilya</t>
+  </si>
+  <si>
+    <t>Kılıç Beyaz Eşya Servisi</t>
+  </si>
+  <si>
+    <t>Hilal Mağazaları Center Şube</t>
+  </si>
+  <si>
+    <t>Bedir Beyaz Eşya Teknik Servisi</t>
+  </si>
+  <si>
+    <t>Profilo Cumhuriyet Bayi Esra Tic.</t>
+  </si>
+  <si>
+    <t>Vestel Melikgazi Yeni Yetkili Satış Mağazası - Bayram Önem</t>
+  </si>
+  <si>
+    <t>kayseri kombi bakım tamir servisi</t>
+  </si>
+  <si>
+    <t>Sontek kombi klima</t>
+  </si>
+  <si>
+    <t>Teknosel Elektronik</t>
+  </si>
+  <si>
+    <t>Irmak Spot</t>
+  </si>
+  <si>
+    <t>Bosch</t>
+  </si>
+  <si>
+    <t>Tv Tamircisi - Çanak Anten Kurulumu - Uydu Tamircisi - Uyducu - Kayseri - Talas - Kocasinan - Melikgazi</t>
+  </si>
+  <si>
+    <t>Tenzeri öglu</t>
+  </si>
+  <si>
+    <t>KUMSmall AVM</t>
+  </si>
+  <si>
+    <t>Kocasinan - Profilo Yetkili Servisi</t>
+  </si>
+  <si>
+    <t>SİEMENS TMK BEYAZ EŞYA</t>
+  </si>
+  <si>
+    <t>İklim Servis - Kayseri Beyaz Eşya Servisi</t>
+  </si>
+  <si>
+    <t>Zamanti Beyaz Eşya</t>
+  </si>
+  <si>
+    <t>Kayseri AEG &amp; Electrolux Beyaz Eşya Mağazası | Emel Ticaret</t>
+  </si>
+  <si>
+    <t>Elektronik eşya mağazası</t>
   </si>
   <si>
     <t>Beyaz Eşya Mağazası</t>
   </si>
   <si>
+    <t>Alışveriş merkezi</t>
+  </si>
+  <si>
+    <t>Beyaz Eşya Tamirhanesi</t>
+  </si>
+  <si>
     <t>Mağaza</t>
   </si>
   <si>
-    <t>Elektronik eşya mağazası</t>
-  </si>
-  <si>
-    <t>Alışveriş merkezi</t>
+    <t>Ev Eşyaları Mağazası</t>
+  </si>
+  <si>
+    <t>Çamaşır ve Kurutma Makinesi Tamir Servisi</t>
+  </si>
+  <si>
+    <t>Elektronik</t>
+  </si>
+  <si>
+    <t>Üretici</t>
+  </si>
+  <si>
+    <t>Elektrikli Cihaz Tamircisi</t>
+  </si>
+  <si>
+    <t>Isıtma Sistemleri</t>
+  </si>
+  <si>
+    <t>Televizyon Tamir Servisi</t>
+  </si>
+  <si>
+    <t>Buzdolabı Tamir Servisi</t>
+  </si>
+  <si>
+    <t>İkinci El Mağazası</t>
+  </si>
+  <si>
+    <t>Pil Mağazası</t>
+  </si>
+  <si>
+    <t>Anten Hizmetleri</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>4,7</t>
   </si>
   <si>
     <t>4,4</t>
@@ -87,22 +433,223 @@
     <t>5,0</t>
   </si>
   <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>4,3</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>4,9</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>Sanayi, 6003. Cd No:147, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Bosch, Şeker Mah. Osman Kavuncu Blv. Yan yolu Meysu Outlet -1. Kat No 3, 38080 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sanayi, 1. Cd. 126A, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sanayi, 1. Cd. 130/A, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Mimar Sinan Cd. No:17, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Kanal Cd. No:75, 38015 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>sahabiye Sivas Cad. Stad İş Hanı, D:31/a, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Birkan Sk. No:19, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Mimarsinan mah.bağışlı sok. Tuna life avm no: 5 / B13, Mimarsinan, Tuna Cd. AVM No:58, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Hamidiye Sk. No:10, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gül Ticaret, Gevheri Nesibe Mah, İstasyon Cd. Camlı İş Merkezi No: 25/C, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Ceyhan Sk. No:8/B, 38125 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sanayi, 6001. cadde no:91/a, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>MURAT ELEKTRONİK, Gevhernesibe, Donanma Cd. no/10 b, 38050 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>SERCEONU MAH.SIVAS CAD, STAD IS 31/A, 38015</t>
+  </si>
+  <si>
+    <t>NO:79B, Fevzi Çakmak, Fuzuli Cd. No:79 D:B, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Aslan Ağzı Sok Yenidoğan Kömürcüler Sitesi 30, 38080 Kocasinan</t>
+  </si>
+  <si>
+    <t>Sahabiye, Ahievran Cd. No:11/A, 38100 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Cumhuriyet, Sur Cd. No:17 D:C, 38040 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Ahmet Paşa Cd. No:3, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Anıt Cd. No:6, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Serçeönü Mahallesi Türkay Sokagi No: 5/D, 38015 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Mehmet Akif Sk., 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Barbaros, Bağdat Cd. 72/a, 38080 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak Mah. Sivas Cad, Esen Sk. Apt No:61, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Mahallesi, Gevhernesibe, Atatürk Blv. No:9 D:A, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Otak Sk. no:31, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Mimarsinan, Köprülü Cd. 27/c, 38030 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Ceyhan Sk. 7/a, 38030 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Eski Sanayi Bölgesi, Sanayi, 3. Cd. No:133/A, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>BEKİR YILDIZ BULVARI ZÜMRÜT MAH 56/B, 38000 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Kök Sk NO:4/B, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Donanma Cd. no 10b, 38050 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Meltem Apt, Sahabiye, Mustafa Kemal Paşa Blv. 53/A, 38080 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak, Nil Cd. gulcevık apt altı 110 c, 38125 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Cumhuriyet Meydanı Yer Altı Çarşısı No:110 Kocasinan/kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak, Esen Sk. 53/A, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Argıncık, Yavuz Sultan Selim Cd. No:121/B, 38110 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Erciyesevler Mah.Billur Cad, Kumlu Sk. No:16/A, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, İstasyon Cd. No: 62/A, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Barbaros, Uygun Sk. 23/a, 38100 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak, Mustafa Kemal Paşa Blv. No: 90/A No: 90/A, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak, Sivas Blv. No:95, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevher Nesibe MH.tekin sokak İmtaş park işhanı no.4, 38040 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak, Sivas Blv. No:105, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Şeker, Osman Kavuncu Blv. No:364, 38070 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sanayi, 6010. Cd No:14, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Argıncık, Yavuz Sultan Selim Cd. No:113, 38110 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Aydınlıkevler, Şebboy Sk. No:38, 38050 Melikgazi/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, 38015 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe mah. Mimarsinan cad, Rıhtım Sk. No:8/B, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Donanma Cd. 10 b, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak, Esen Sk. No:11/A, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak, Mustafa Kemal Paşa Blv. 98/C, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Karpuzsekisi, 43. CD No: 17, 38050 Organize Sanayi Bölgesi/Hacilar/Kayseri</t>
+  </si>
+  <si>
+    <t>uğurevler mh 18. Cad, 234. Sk. Menekşe Apt No:5/B, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak, Billur Cd. No:27, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Doktor Ayhan Ada Caddesi No:2/B, 38030 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Mimarsinan, Tarsus Sk. no:9, 38020 Kocasinan/Kayseri</t>
   </si>
   <si>
     <t>Cumhuriyet, Sur Cd. No:1/A, 38040 Melikgazi/Kayseri</t>
@@ -111,19 +658,310 @@
     <t>Gülük Mah. Osman Kavuncu Cad. Otel Sok. Özköseler İş Hanı, No: 2/A, 38050 Melikgazi/Kayseri</t>
   </si>
   <si>
-    <t>Sanayi, 6003. Cd No:147, 38010 Kocasinan/Kayseri</t>
-  </si>
-  <si>
-    <t>Sanayi, 1. Cd. 126A, 38010 Kocasinan/Kayseri</t>
-  </si>
-  <si>
-    <t>Bosch, Şeker Mah. Osman Kavuncu Blv. Yan yolu Meysu Outlet -1. Kat No 3, 38080 Kocasinan/Kayseri</t>
-  </si>
-  <si>
-    <t>Sanayi, 1. Cd. 130/A, 38010 Kocasinan/Kayseri</t>
-  </si>
-  <si>
-    <t>Gevhernesibe, Mimar Sinan Cd. No:17, 38010 Kocasinan/Kayseri</t>
+    <t>Barbaros Mah. Kaldırım Cad. Gülveren Sitesi, No:40/A, 38060 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Mimarsinan, Köprülü Cd. Dal apt No:9/A, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Helvacıdede Sk. No:3/B, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Esentepe, Karlıova Sk. No:26, 38060 Melikgazi/Kayseri</t>
+  </si>
+  <si>
+    <t>Cumhuriyet, Basma Sk. 16/A, 38040 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Barbaros, Kocasinan Blv. No:97, 38060 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Osman Kavuncu Blv. 8/a, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak, Bozantı Cd. 62/D, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Meltem Apt, Sanayi, Mustafa Kemal Paşa Blv. 53/A, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Cumhuriyet Meydanı, İstasyon Cd. No:5 D:a, 30010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, İstasyon Cd. No:9/A, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>fevzi çakmak mh Bozantı Cad. Meltem Apt. 80/C, sami yangın anadolu lisesi yanı, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Tacettin Veli, Deliklitaş Cd. No:29 D:C, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Metin Apartmanı, Mevlana, 14. Cd. 44/A, 38090 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye Mah. Çankaya Cad. Erciyes Sit A Blok Altı No:34/A, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Tacettin Veli Mahallesi Delikli taş Caddesi, Alan Apartmanı No:4/4, 38150 Melikgazi</t>
+  </si>
+  <si>
+    <t>Sanayi, Kocasinan Blv., 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Mimar Sinan Cd. No:7, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>FEVZİ ÇAKMAK MAH. M.KEMAL PAŞA BULV. NO:88/C ( NATO CD, 38060 Kocasinan</t>
+  </si>
+  <si>
+    <t>Mimarsinan, Köprülü Cd. No:9A, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Mimarsinan, Batman Sk. No:15, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sanayi, 32. Sk. No:5, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Yıldırım Cd. 43/A, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Kayseri İkinci El Eşya, Tacettin Veli, Şehitlik Sk. No:32 D:B, 38020 Melikgazi/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Salih Avgın Cd No:16, 38100 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sanayi, Yeraltı Çarşısı D:110, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak Mahallesi mimarsinan mh tarsus sk ipek ap no 9/b, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Serçeönü, Mete Cd. No:28, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Uğurevler, Sivas Blv., 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Life Center, Mimarsinan, Tuna Cd. No:16-17, 38020 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe, Anıt Cd. 5/A, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Şeker, Osman Kavuncu Blv., 38080 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Yunusemre, Lokman Cd. No:38, 38080 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Cumhuriyet Mah. Yeraltı Carşısı 149, Kocasinan</t>
+  </si>
+  <si>
+    <t>Sahabiye, Mete Cd. No:30, 38015 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>sahabiye mh kardelen sok, Sahabiye, fahrettin dereceli no : 5, 38015 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Ahmet Paşa Cd. No 36 D:G, 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>kamer AP, Sahabiye mah Mete Caddesi, Otak Sk., 38010 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Tacettin Veli Mah Deliklitaş Cad Alan Apt, Tacettin Veli, Deliklitaş Cd. No:29 No 29 / C, 38050 Melikgazi/Kayseri</t>
+  </si>
+  <si>
+    <t>Hunat, Sivas Blv. 24/1, 38090 Melikgazi/Kayseri</t>
+  </si>
+  <si>
+    <t>Gevhernesibe Mahallesi Salih Avgun, Aydınlıkevler, Ziya Paşa Cd. No: 16, 38050 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>öZtürk Ap, Sahabiye, Yıldırım Cd. D:25c, 38000 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Camiikebir, 5062 Cad No: 44, 38100 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Fevzi Çakmak, Mustafa Kemal Paşa Blv. 88/c, 38090 Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>Keykubat, Kocatepe Cd. No:145, 38040 Melikgazi/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, Mete Cd. No:30, 38015 Melikgazi/Kayseri</t>
+  </si>
+  <si>
+    <t>Cumhuriyet, Bankalar Cd. 20/B, 38040 Melikgazi/Kayseri</t>
+  </si>
+  <si>
+    <t>Sahabiye, İstasyon Caddesi No: 62/A, 38010 Sahabiye/Kocasinan/Kayseri</t>
+  </si>
+  <si>
+    <t>(0352) 320 61 25</t>
+  </si>
+  <si>
+    <t>0505 981 74 08</t>
+  </si>
+  <si>
+    <t>(0352) 320 85 11</t>
+  </si>
+  <si>
+    <t>(0352) 330 28 28</t>
+  </si>
+  <si>
+    <t>(0352) 222 79 30</t>
+  </si>
+  <si>
+    <t>(0352) 221 04 40</t>
+  </si>
+  <si>
+    <t>(0352) 232 71 26</t>
+  </si>
+  <si>
+    <t>444 5 338</t>
+  </si>
+  <si>
+    <t>0552 245 67 34</t>
+  </si>
+  <si>
+    <t>0552 448 91 38</t>
+  </si>
+  <si>
+    <t>(0352) 232 86 50</t>
+  </si>
+  <si>
+    <t>(0352) 408 02 44</t>
+  </si>
+  <si>
+    <t>0535 443 31 47</t>
+  </si>
+  <si>
+    <t>0553 084 58 95</t>
+  </si>
+  <si>
+    <t>0542 390 20 01</t>
+  </si>
+  <si>
+    <t>(0352) 222 22 24</t>
+  </si>
+  <si>
+    <t>(0352) 222 65 46</t>
+  </si>
+  <si>
+    <t>(0352) 222 36 46</t>
+  </si>
+  <si>
+    <t>(0352) 231 11 06</t>
+  </si>
+  <si>
+    <t>0554 928 13 33</t>
+  </si>
+  <si>
+    <t>(0352) 222 34 13</t>
+  </si>
+  <si>
+    <t>(0352) 338 11 56</t>
+  </si>
+  <si>
+    <t>(0352) 235 94 60</t>
+  </si>
+  <si>
+    <t>(0352) 336 13 92</t>
+  </si>
+  <si>
+    <t>(0352) 330 30 33</t>
+  </si>
+  <si>
+    <t>0505 149 68 37</t>
+  </si>
+  <si>
+    <t>444 9 014</t>
+  </si>
+  <si>
+    <t>0546 551 31 55</t>
+  </si>
+  <si>
+    <t>0544 238 38 99</t>
+  </si>
+  <si>
+    <t>0553 237 70 98</t>
+  </si>
+  <si>
+    <t>(0352) 222 51 91</t>
+  </si>
+  <si>
+    <t>0505 554 05 00</t>
+  </si>
+  <si>
+    <t>0531 747 28 72</t>
+  </si>
+  <si>
+    <t>(0352) 231 08 77</t>
+  </si>
+  <si>
+    <t>0541 962 52 20</t>
+  </si>
+  <si>
+    <t>(0352) 245 25 32</t>
+  </si>
+  <si>
+    <t>(0352) 235 44 87</t>
+  </si>
+  <si>
+    <t>(0352) 222 01 85</t>
+  </si>
+  <si>
+    <t>(0352) 223 79 74</t>
+  </si>
+  <si>
+    <t>(0352) 235 84 48</t>
+  </si>
+  <si>
+    <t>(0352) 231 98 90</t>
+  </si>
+  <si>
+    <t>(0352) 231 74 90</t>
+  </si>
+  <si>
+    <t>0542 351 44 18</t>
+  </si>
+  <si>
+    <t>(0352) 245 25 76</t>
+  </si>
+  <si>
+    <t>0537 462 89 22</t>
+  </si>
+  <si>
+    <t>0553 094 24 86</t>
+  </si>
+  <si>
+    <t>0507 559 51 91</t>
+  </si>
+  <si>
+    <t>(0352) 222 77 10</t>
+  </si>
+  <si>
+    <t>(0352) 233 84 84</t>
+  </si>
+  <si>
+    <t>0543 236 40 59</t>
+  </si>
+  <si>
+    <t>(0352) 223 52 62</t>
+  </si>
+  <si>
+    <t>0543 603 51 52</t>
+  </si>
+  <si>
+    <t>0545 886 33 38</t>
+  </si>
+  <si>
+    <t>(0352) 235 60 76</t>
   </si>
   <si>
     <t>(0352) 221 00 24</t>
@@ -132,41 +970,275 @@
     <t>(0352) 336 49 27</t>
   </si>
   <si>
-    <t>(0352) 320 61 25</t>
-  </si>
-  <si>
-    <t>(0352) 320 85 11</t>
-  </si>
-  <si>
-    <t>0505 981 74 08</t>
-  </si>
-  <si>
-    <t>(0352) 330 28 28</t>
-  </si>
-  <si>
-    <t>(0352) 222 79 30</t>
+    <t>(0352) 338 09 22</t>
+  </si>
+  <si>
+    <t>(0352) 223 32 03</t>
+  </si>
+  <si>
+    <t>(0352) 231 53 38</t>
+  </si>
+  <si>
+    <t>0539 262 32 31</t>
+  </si>
+  <si>
+    <t>(0352) 231 69 62</t>
+  </si>
+  <si>
+    <t>(0352) 320 42 21</t>
+  </si>
+  <si>
+    <t>(0352) 232 57 77</t>
+  </si>
+  <si>
+    <t>0552 927 37 17</t>
+  </si>
+  <si>
+    <t>(0352) 222 16 50</t>
+  </si>
+  <si>
+    <t>(0352) 222 65 09</t>
+  </si>
+  <si>
+    <t>(0352) 222 70 37</t>
+  </si>
+  <si>
+    <t>(0352) 233 63 56</t>
+  </si>
+  <si>
+    <t>0541 431 69 38</t>
+  </si>
+  <si>
+    <t>0536 764 73 64</t>
+  </si>
+  <si>
+    <t>0532 221 79 68</t>
+  </si>
+  <si>
+    <t>0533 029 49 68</t>
+  </si>
+  <si>
+    <t>0530 960 90 45</t>
+  </si>
+  <si>
+    <t>444 5 533</t>
+  </si>
+  <si>
+    <t>(0352) 236 39 83</t>
+  </si>
+  <si>
+    <t>(0352) 231 61 44</t>
+  </si>
+  <si>
+    <t>0546 414 58 89</t>
+  </si>
+  <si>
+    <t>0532 308 50 73</t>
+  </si>
+  <si>
+    <t>0542 215 80 12</t>
+  </si>
+  <si>
+    <t>0533 321 68 84</t>
+  </si>
+  <si>
+    <t>0535 360 57 23</t>
+  </si>
+  <si>
+    <t>0542 426 98 31</t>
+  </si>
+  <si>
+    <t>(0352) 232 36 40</t>
+  </si>
+  <si>
+    <t>0506 553 79 09</t>
+  </si>
+  <si>
+    <t>0532 673 61 63</t>
+  </si>
+  <si>
+    <t>0505 084 99 35</t>
+  </si>
+  <si>
+    <t>0530 442 90 89</t>
+  </si>
+  <si>
+    <t>(0352) 224 00 05</t>
+  </si>
+  <si>
+    <t>(0352) 222 22 10</t>
+  </si>
+  <si>
+    <t>444 2 077</t>
+  </si>
+  <si>
+    <t>444 7 766</t>
+  </si>
+  <si>
+    <t>(0352) 235 88 98</t>
+  </si>
+  <si>
+    <t>(0352) 222 39 39</t>
+  </si>
+  <si>
+    <t>(0352) 232 51 67</t>
+  </si>
+  <si>
+    <t>cankuslar.com.tr</t>
+  </si>
+  <si>
+    <t>nurkanspot.com</t>
+  </si>
+  <si>
+    <t>vestel.com.tr</t>
+  </si>
+  <si>
+    <t>bingolticaret.com</t>
+  </si>
+  <si>
+    <t>kayseribeyazesyaservisim.com</t>
+  </si>
+  <si>
+    <t>kutupservis.com.tr</t>
+  </si>
+  <si>
+    <t>servisustasi.com.tr</t>
+  </si>
+  <si>
+    <t>profilo.com</t>
+  </si>
+  <si>
+    <t>globalbeyazesya.com</t>
+  </si>
+  <si>
+    <t>senturkdtm.com</t>
+  </si>
+  <si>
+    <t>arcelik.com</t>
+  </si>
+  <si>
+    <t>kayseribeyazesyaservisleri.com</t>
+  </si>
+  <si>
+    <t>bosch-home.com.tr</t>
+  </si>
+  <si>
+    <t>vestelelektronik.com</t>
+  </si>
+  <si>
+    <t>ruzgarbeyazesyaservisi.com</t>
+  </si>
+  <si>
+    <t>kayseri-servis.com</t>
+  </si>
+  <si>
+    <t>instagram.com</t>
+  </si>
+  <si>
+    <t>yedpayedekparca.com</t>
+  </si>
+  <si>
+    <t>kayseriservis.com</t>
+  </si>
+  <si>
+    <t>esensogutma.com.tr</t>
+  </si>
+  <si>
+    <t>beko.com.tr</t>
+  </si>
+  <si>
+    <t>sinanbilisim.com</t>
+  </si>
+  <si>
+    <t>kaplanbeyazesya.com</t>
+  </si>
+  <si>
+    <t>ozsim.net</t>
+  </si>
+  <si>
+    <t>mabsbservis.com.tr</t>
+  </si>
+  <si>
+    <t>bayi.kismetteknik.com.tr</t>
+  </si>
+  <si>
+    <t>kayseriboschservisi.com</t>
+  </si>
+  <si>
+    <t>bolkarservis.com</t>
+  </si>
+  <si>
+    <t>ozes.com.tr</t>
+  </si>
+  <si>
+    <t>beyazesyaservisikayseri.net</t>
   </si>
   <si>
     <t>arcelik.com.tr</t>
   </si>
   <si>
-    <t>beko.com.tr</t>
-  </si>
-  <si>
-    <t>cankuslar.com.tr</t>
-  </si>
-  <si>
-    <t>nurkanspot.com</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
+    <t>ugur.com.tr</t>
+  </si>
+  <si>
+    <t>siemens-cemka.com</t>
+  </si>
+  <si>
+    <t>bosch.com.tr</t>
+  </si>
+  <si>
+    <t>kayserinisanteknik.com</t>
+  </si>
+  <si>
+    <t>franke.com.tr</t>
+  </si>
+  <si>
+    <t>kayseri-2elesya.com</t>
+  </si>
+  <si>
+    <t>siemens-home.bsh-group.com</t>
+  </si>
+  <si>
+    <t>gaggenau-yetkiliservisi.com</t>
+  </si>
+  <si>
+    <t>kayseriikincielesyam.com</t>
+  </si>
+  <si>
+    <t>kayseritelevizyontamircisi.com</t>
+  </si>
+  <si>
+    <t>hilalticaret.com.tr</t>
+  </si>
+  <si>
+    <t>kayserispotcum.com</t>
+  </si>
+  <si>
+    <t>hemengelirim.com</t>
+  </si>
+  <si>
+    <t>kumsmall.com.tr</t>
+  </si>
+  <si>
+    <t>profilo-yetkiliservisi.com</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>iklimservis.com</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,19 +1301,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -283,7 +1347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,10 +1379,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,7 +1413,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,23 +1588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,177 +1624,2686 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>356</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D4">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
+        <v>136</v>
+      </c>
+      <c r="D7">
+        <v>635</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>267</v>
+      </c>
+      <c r="G7" t="s">
+        <v>358</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>1953</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" t="s">
+        <v>359</v>
+      </c>
+      <c r="I9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10">
+        <v>356</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" t="s">
+        <v>358</v>
+      </c>
+      <c r="I10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>273</v>
+      </c>
+      <c r="I13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" t="s">
+        <v>362</v>
+      </c>
+      <c r="I16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" t="s">
+        <v>363</v>
+      </c>
+      <c r="I17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" t="s">
+        <v>364</v>
+      </c>
+      <c r="I18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" t="s">
+        <v>363</v>
+      </c>
+      <c r="I19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20">
+        <v>463</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s">
+        <v>277</v>
+      </c>
+      <c r="G20" t="s">
+        <v>365</v>
+      </c>
+      <c r="I20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I22" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" t="s">
+        <v>363</v>
+      </c>
+      <c r="I23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" t="s">
+        <v>367</v>
+      </c>
+      <c r="I24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" t="s">
+        <v>282</v>
+      </c>
+      <c r="I25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26" t="s">
+        <v>363</v>
+      </c>
+      <c r="I26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" t="s">
+        <v>284</v>
+      </c>
+      <c r="G27" t="s">
+        <v>368</v>
+      </c>
+      <c r="I27" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" t="s">
+        <v>285</v>
+      </c>
+      <c r="I28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" t="s">
+        <v>286</v>
+      </c>
+      <c r="G29" t="s">
+        <v>369</v>
+      </c>
+      <c r="I29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>370</v>
+      </c>
+      <c r="I30" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>371</v>
+      </c>
+      <c r="I31" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" t="s">
+        <v>289</v>
+      </c>
+      <c r="I32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I33" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="I8" t="s">
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" t="s">
+        <v>373</v>
+      </c>
+      <c r="I34" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>374</v>
+      </c>
+      <c r="I35" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="I36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="I37" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" t="s">
+        <v>295</v>
+      </c>
+      <c r="I38" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
         <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" t="s">
+        <v>375</v>
+      </c>
+      <c r="I39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" t="s">
+        <v>297</v>
+      </c>
+      <c r="G40" t="s">
+        <v>376</v>
+      </c>
+      <c r="I40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41">
+        <v>186</v>
+      </c>
+      <c r="E41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" t="s">
+        <v>376</v>
+      </c>
+      <c r="I42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+      <c r="I43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" t="s">
+        <v>368</v>
+      </c>
+      <c r="I44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46">
+        <v>262</v>
+      </c>
+      <c r="E46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" t="s">
+        <v>302</v>
+      </c>
+      <c r="G46" t="s">
+        <v>377</v>
+      </c>
+      <c r="I46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" t="s">
+        <v>301</v>
+      </c>
+      <c r="I47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48">
+        <v>423</v>
+      </c>
+      <c r="E48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" t="s">
+        <v>358</v>
+      </c>
+      <c r="I48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" t="s">
+        <v>304</v>
+      </c>
+      <c r="I49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" t="s">
+        <v>305</v>
+      </c>
+      <c r="I50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" t="s">
+        <v>306</v>
+      </c>
+      <c r="G51" t="s">
+        <v>378</v>
+      </c>
+      <c r="I51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" t="s">
+        <v>379</v>
+      </c>
+      <c r="I52" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" t="s">
+        <v>307</v>
+      </c>
+      <c r="I53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" t="s">
+        <v>380</v>
+      </c>
+      <c r="I54" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55">
+        <v>120</v>
+      </c>
+      <c r="E55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" t="s">
+        <v>309</v>
+      </c>
+      <c r="G55" t="s">
+        <v>363</v>
+      </c>
+      <c r="I55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" t="s">
+        <v>310</v>
+      </c>
+      <c r="I56" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" t="s">
+        <v>311</v>
+      </c>
+      <c r="G57" t="s">
+        <v>381</v>
+      </c>
+      <c r="I57" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" t="s">
+        <v>312</v>
+      </c>
+      <c r="G58" t="s">
+        <v>382</v>
+      </c>
+      <c r="I58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" t="s">
+        <v>313</v>
+      </c>
+      <c r="G59" t="s">
+        <v>383</v>
+      </c>
+      <c r="I59" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>210</v>
+      </c>
+      <c r="F60" t="s">
+        <v>314</v>
+      </c>
+      <c r="G60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I60" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>211</v>
+      </c>
+      <c r="F61" t="s">
+        <v>315</v>
+      </c>
+      <c r="G61" t="s">
+        <v>385</v>
+      </c>
+      <c r="I61" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>212</v>
+      </c>
+      <c r="F62" t="s">
+        <v>316</v>
+      </c>
+      <c r="G62" t="s">
+        <v>386</v>
+      </c>
+      <c r="I62" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" t="s">
+        <v>317</v>
+      </c>
+      <c r="G63" t="s">
+        <v>376</v>
+      </c>
+      <c r="I63" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" t="s">
+        <v>318</v>
+      </c>
+      <c r="G64" t="s">
+        <v>372</v>
+      </c>
+      <c r="I64" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65">
+        <v>76</v>
+      </c>
+      <c r="E65" t="s">
+        <v>215</v>
+      </c>
+      <c r="F65" t="s">
+        <v>319</v>
+      </c>
+      <c r="I65" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>216</v>
+      </c>
+      <c r="F66" t="s">
+        <v>320</v>
+      </c>
+      <c r="G66" t="s">
+        <v>387</v>
+      </c>
+      <c r="I66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67">
+        <v>39</v>
+      </c>
+      <c r="E67" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67" t="s">
+        <v>321</v>
+      </c>
+      <c r="I67" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F68" t="s">
+        <v>322</v>
+      </c>
+      <c r="I68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" t="s">
+        <v>219</v>
+      </c>
+      <c r="G69" t="s">
+        <v>388</v>
+      </c>
+      <c r="I69" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" t="s">
+        <v>220</v>
+      </c>
+      <c r="F70" t="s">
+        <v>323</v>
+      </c>
+      <c r="G70" t="s">
+        <v>389</v>
+      </c>
+      <c r="I70" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71">
+        <v>79</v>
+      </c>
+      <c r="E71" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" t="s">
+        <v>324</v>
+      </c>
+      <c r="I71" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>221</v>
+      </c>
+      <c r="F72" t="s">
+        <v>325</v>
+      </c>
+      <c r="G72" t="s">
+        <v>390</v>
+      </c>
+      <c r="I72" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73">
+        <v>77</v>
+      </c>
+      <c r="E73" t="s">
+        <v>222</v>
+      </c>
+      <c r="F73" t="s">
+        <v>326</v>
+      </c>
+      <c r="I73" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" t="s">
+        <v>223</v>
+      </c>
+      <c r="F74" t="s">
+        <v>327</v>
+      </c>
+      <c r="G74" t="s">
+        <v>363</v>
+      </c>
+      <c r="I74" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" t="s">
+        <v>224</v>
+      </c>
+      <c r="F75" t="s">
+        <v>328</v>
+      </c>
+      <c r="G75" t="s">
+        <v>363</v>
+      </c>
+      <c r="I75" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s">
+        <v>225</v>
+      </c>
+      <c r="F76" t="s">
+        <v>329</v>
+      </c>
+      <c r="I76" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" t="s">
+        <v>330</v>
+      </c>
+      <c r="G77" t="s">
+        <v>372</v>
+      </c>
+      <c r="I77" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" t="s">
+        <v>331</v>
+      </c>
+      <c r="I78" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79">
+        <v>29</v>
+      </c>
+      <c r="E79" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" t="s">
+        <v>332</v>
+      </c>
+      <c r="G79" t="s">
+        <v>391</v>
+      </c>
+      <c r="I79" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80">
+        <v>67</v>
+      </c>
+      <c r="E80" t="s">
+        <v>229</v>
+      </c>
+      <c r="F80" t="s">
+        <v>333</v>
+      </c>
+      <c r="G80" t="s">
+        <v>392</v>
+      </c>
+      <c r="I80" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" t="s">
+        <v>230</v>
+      </c>
+      <c r="G81" t="s">
+        <v>393</v>
+      </c>
+      <c r="I81" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" t="s">
+        <v>231</v>
+      </c>
+      <c r="F82" t="s">
+        <v>266</v>
+      </c>
+      <c r="G82" t="s">
+        <v>363</v>
+      </c>
+      <c r="I82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>232</v>
+      </c>
+      <c r="F83" t="s">
+        <v>334</v>
+      </c>
+      <c r="G83" t="s">
+        <v>393</v>
+      </c>
+      <c r="I83" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>213</v>
+      </c>
+      <c r="F84" t="s">
+        <v>317</v>
+      </c>
+      <c r="G84" t="s">
+        <v>376</v>
+      </c>
+      <c r="I84" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85">
+        <v>19</v>
+      </c>
+      <c r="E85" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" t="s">
+        <v>316</v>
+      </c>
+      <c r="G85" t="s">
+        <v>386</v>
+      </c>
+      <c r="I85" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" t="s">
+        <v>233</v>
+      </c>
+      <c r="F86" t="s">
+        <v>335</v>
+      </c>
+      <c r="G86" t="s">
+        <v>394</v>
+      </c>
+      <c r="I86" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" t="s">
+        <v>234</v>
+      </c>
+      <c r="F87" t="s">
+        <v>336</v>
+      </c>
+      <c r="G87" t="s">
+        <v>368</v>
+      </c>
+      <c r="I87" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" t="s">
+        <v>235</v>
+      </c>
+      <c r="I88" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" t="s">
+        <v>236</v>
+      </c>
+      <c r="F89" t="s">
+        <v>337</v>
+      </c>
+      <c r="I89" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90">
+        <v>180</v>
+      </c>
+      <c r="E90" t="s">
+        <v>237</v>
+      </c>
+      <c r="F90" t="s">
+        <v>338</v>
+      </c>
+      <c r="G90" t="s">
+        <v>395</v>
+      </c>
+      <c r="I90" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91">
+        <v>294</v>
+      </c>
+      <c r="E91" t="s">
+        <v>238</v>
+      </c>
+      <c r="F91" t="s">
+        <v>339</v>
+      </c>
+      <c r="G91" t="s">
+        <v>396</v>
+      </c>
+      <c r="I91" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" t="s">
+        <v>239</v>
+      </c>
+      <c r="I92" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>240</v>
+      </c>
+      <c r="F93" t="s">
+        <v>340</v>
+      </c>
+      <c r="I93" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>241</v>
+      </c>
+      <c r="F94" t="s">
+        <v>303</v>
+      </c>
+      <c r="G94" t="s">
+        <v>393</v>
+      </c>
+      <c r="I94" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" t="s">
+        <v>242</v>
+      </c>
+      <c r="F95" t="s">
+        <v>341</v>
+      </c>
+      <c r="G95" t="s">
+        <v>389</v>
+      </c>
+      <c r="I95" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>243</v>
+      </c>
+      <c r="F96" t="s">
+        <v>270</v>
+      </c>
+      <c r="G96" t="s">
+        <v>393</v>
+      </c>
+      <c r="I96" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" t="s">
+        <v>244</v>
+      </c>
+      <c r="F97" t="s">
+        <v>342</v>
+      </c>
+      <c r="I97" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98">
+        <v>34</v>
+      </c>
+      <c r="E98" t="s">
+        <v>245</v>
+      </c>
+      <c r="F98" t="s">
+        <v>343</v>
+      </c>
+      <c r="G98" t="s">
+        <v>397</v>
+      </c>
+      <c r="I98" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" t="s">
+        <v>246</v>
+      </c>
+      <c r="I99" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="E100" t="s">
+        <v>247</v>
+      </c>
+      <c r="F100" t="s">
+        <v>328</v>
+      </c>
+      <c r="G100" t="s">
+        <v>363</v>
+      </c>
+      <c r="I100" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101">
+        <v>520</v>
+      </c>
+      <c r="E101" t="s">
+        <v>248</v>
+      </c>
+      <c r="F101" t="s">
+        <v>344</v>
+      </c>
+      <c r="G101" t="s">
+        <v>358</v>
+      </c>
+      <c r="I101" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102">
+        <v>41</v>
+      </c>
+      <c r="E102" t="s">
+        <v>249</v>
+      </c>
+      <c r="F102" t="s">
+        <v>345</v>
+      </c>
+      <c r="I102" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F103" t="s">
+        <v>346</v>
+      </c>
+      <c r="I103" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104">
+        <v>21</v>
+      </c>
+      <c r="E104" t="s">
+        <v>251</v>
+      </c>
+      <c r="F104" t="s">
+        <v>347</v>
+      </c>
+      <c r="I104" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105">
+        <v>29</v>
+      </c>
+      <c r="E105" t="s">
+        <v>252</v>
+      </c>
+      <c r="F105" t="s">
+        <v>348</v>
+      </c>
+      <c r="G105" t="s">
+        <v>398</v>
+      </c>
+      <c r="I105" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>253</v>
+      </c>
+      <c r="F106" t="s">
+        <v>349</v>
+      </c>
+      <c r="I106" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" t="s">
+        <v>137</v>
+      </c>
+      <c r="D107">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>254</v>
+      </c>
+      <c r="F107" t="s">
+        <v>350</v>
+      </c>
+      <c r="G107" t="s">
+        <v>399</v>
+      </c>
+      <c r="I107" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" t="s">
+        <v>255</v>
+      </c>
+      <c r="I108" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109">
+        <v>728</v>
+      </c>
+      <c r="E109" t="s">
+        <v>256</v>
+      </c>
+      <c r="F109" t="s">
+        <v>351</v>
+      </c>
+      <c r="G109" t="s">
+        <v>400</v>
+      </c>
+      <c r="I109" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="E110" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" t="s">
+        <v>352</v>
+      </c>
+      <c r="G110" t="s">
+        <v>401</v>
+      </c>
+      <c r="I110" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>257</v>
+      </c>
+      <c r="F111" t="s">
+        <v>353</v>
+      </c>
+      <c r="G111" t="s">
+        <v>402</v>
+      </c>
+      <c r="I111" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" t="s">
+        <v>132</v>
+      </c>
+      <c r="D112">
+        <v>133</v>
+      </c>
+      <c r="E112" t="s">
+        <v>258</v>
+      </c>
+      <c r="F112" t="s">
+        <v>354</v>
+      </c>
+      <c r="G112" t="s">
+        <v>403</v>
+      </c>
+      <c r="I112" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113">
+        <v>131</v>
+      </c>
+      <c r="E113" t="s">
+        <v>259</v>
+      </c>
+      <c r="F113" t="s">
+        <v>303</v>
+      </c>
+      <c r="I113" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>150</v>
+      </c>
+      <c r="D114">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>260</v>
+      </c>
+      <c r="F114" t="s">
+        <v>355</v>
+      </c>
+      <c r="I114" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" t="s">
+        <v>137</v>
+      </c>
+      <c r="E115" t="s">
+        <v>261</v>
+      </c>
+      <c r="I115" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
